--- a/SHArC/SHArea/sfe_25_sharea_chsp_cov.xlsx
+++ b/SHArC/SHArea/sfe_25_sharea_chsp_cov.xlsx
@@ -449,7 +449,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr b="1" lang="en-US"/>
-                  <a:t>Discharge (cfs)</a:t>
+                  <a:t>Discharge (m³/s)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -677,7 +677,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr b="1" baseline="0" i="0" lang="en-US" strike="noStrike" sz="1000"/>
-                  <a:t>Discharge (cfs)</a:t>
+                  <a:t>Discharge (m³/s)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -775,7 +775,7 @@
                 </a:pPr>
                 <a:r>
                   <a:rPr b="1" lang="en-US"/>
-                  <a:t>Calculated Area (acres)</a:t>
+                  <a:t>Calculated Area (m²)</a:t>
                 </a:r>
               </a:p>
             </rich>
@@ -1175,7 +1175,7 @@
   <dimension ref="B2:K200"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="T28" sqref="T28"/>
+      <selection activeCell="T26" sqref="T26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="16.5"/>
@@ -1190,7 +1190,7 @@
     <col customWidth="1" max="8" min="8" style="6" width="2.28515625"/>
     <col customWidth="1" max="9" min="9" style="6" width="12.42578125"/>
     <col bestFit="1" customWidth="1" max="10" min="10" style="6" width="10"/>
-    <col customWidth="1" max="11" min="11" style="14" width="11.42578125"/>
+    <col customWidth="1" max="11" min="11" style="14" width="11.85546875"/>
     <col customWidth="1" max="16" min="12" style="6" width="9.140625"/>
     <col customWidth="1" max="16384" min="17" style="6" width="9.140625"/>
   </cols>
@@ -1238,14 +1238,14 @@
       </c>
       <c r="K2" s="12" t="inlineStr">
         <is>
-          <t>(ac/season)</t>
+          <t>(m²/season)</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="B3" s="4" t="inlineStr">
         <is>
-          <t>(cfs)</t>
+          <t>(m³/s)</t>
         </is>
       </c>
       <c r="C3" s="8" t="inlineStr">
@@ -1265,12 +1265,12 @@
       </c>
       <c r="F3" s="5" t="inlineStr">
         <is>
-          <t>(ac per discharge)</t>
+          <t>(m² per discharge)</t>
         </is>
       </c>
       <c r="G3" s="5" t="inlineStr">
         <is>
-          <t>(ac·%exceed.)</t>
+          <t>(m²·%exceed.)</t>
         </is>
       </c>
     </row>
